--- a/TeamWeeklyReportTemplate.xlsx
+++ b/TeamWeeklyReportTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\OneDrive\Desktop\CS-499\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDFF66E-7DDA-40AD-AB20-6C6398E75A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25573120-FE50-4169-81D0-3AAF00D6FC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="778" xr2:uid="{6CDB0466-9B6B-412A-B047-B3D801752F63}"/>
   </bookViews>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="314">
   <si>
     <t>Name</t>
   </si>
@@ -1449,13 +1449,40 @@
   </si>
   <si>
     <t>Chaz</t>
+  </si>
+  <si>
+    <t>SamuelBMorris41899@gmail.com</t>
+  </si>
+  <si>
+    <t>CS 499</t>
+  </si>
+  <si>
+    <t>CS 103</t>
+  </si>
+  <si>
+    <t>CS 347</t>
+  </si>
+  <si>
+    <t>CS 390</t>
+  </si>
+  <si>
+    <t>CS 443</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>None, so far, but I do expect this to be populated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1503,6 +1530,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1521,10 +1556,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1537,8 +1573,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1855,7 +1895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1903,7 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
   </cols>
@@ -1907,6 +1947,33 @@
       <c r="A2" t="s">
         <v>302</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2052396435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G2" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1924,9 +1991,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DC269835-B560-4A55-A346-DD63044F56B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
